--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -9335,7 +9335,7 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>-16</v>
+        <v>-15</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1119"/>
+  <dimension ref="A1:B1120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8687,7 +8687,7 @@
         <v>44512</v>
       </c>
       <c r="B1038">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>-41</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-76</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>-86</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>-86</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>44694</v>
       </c>
       <c r="B1064">
-        <v>-96</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>44701</v>
       </c>
       <c r="B1065">
-        <v>-80</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>44708</v>
       </c>
       <c r="B1066">
-        <v>-74</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>44715</v>
       </c>
       <c r="B1067">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>44722</v>
       </c>
       <c r="B1068">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>44729</v>
       </c>
       <c r="B1069">
-        <v>-83</v>
+        <v>-84</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>44736</v>
       </c>
       <c r="B1070">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>44743</v>
       </c>
       <c r="B1071">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>44750</v>
       </c>
       <c r="B1072">
-        <v>-59</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>44827</v>
       </c>
       <c r="B1083">
-        <v>-79</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>44834</v>
       </c>
       <c r="B1084">
-        <v>-85</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>44841</v>
       </c>
       <c r="B1085">
-        <v>-82</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>44848</v>
       </c>
       <c r="B1086">
-        <v>-88</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>44855</v>
       </c>
       <c r="B1087">
-        <v>-86</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>44862</v>
       </c>
       <c r="B1088">
-        <v>-89</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9335,7 +9335,15 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>-15</v>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2">
+      <c r="A1120" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B1120">
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -9343,7 +9343,7 @@
         <v>45086</v>
       </c>
       <c r="B1120">
-        <v>-7</v>
+        <v>-9</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1120"/>
+  <dimension ref="A1:B1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9346,6 +9346,14 @@
         <v>-9</v>
       </c>
     </row>
+    <row r="1121" spans="1:2">
+      <c r="A1121" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1121">
+        <v>-11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1121"/>
+  <dimension ref="A1:B1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1895,7 +1895,7 @@
         <v>38569</v>
       </c>
       <c r="B189">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>39381</v>
       </c>
       <c r="B305">
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>39507</v>
       </c>
       <c r="B323">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>-71</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>39738</v>
       </c>
       <c r="B356">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>40109</v>
       </c>
       <c r="B409">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>40347</v>
       </c>
       <c r="B443">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>40354</v>
       </c>
       <c r="B444">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>40361</v>
       </c>
       <c r="B445">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>40368</v>
       </c>
       <c r="B446">
-        <v>-14</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>40375</v>
       </c>
       <c r="B447">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>40382</v>
       </c>
       <c r="B448">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>40389</v>
       </c>
       <c r="B449">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>40396</v>
       </c>
       <c r="B450">
-        <v>-22</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>40403</v>
       </c>
       <c r="B451">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>40410</v>
       </c>
       <c r="B452">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>40417</v>
       </c>
       <c r="B453">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>40424</v>
       </c>
       <c r="B454">
-        <v>-62</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>40459</v>
       </c>
       <c r="B459">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>40466</v>
       </c>
       <c r="B460">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>40473</v>
       </c>
       <c r="B461">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>40480</v>
       </c>
       <c r="B462">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>40487</v>
       </c>
       <c r="B463">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>40494</v>
       </c>
       <c r="B464">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>40501</v>
       </c>
       <c r="B465">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>40508</v>
       </c>
       <c r="B466">
-        <v>-30</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>40515</v>
       </c>
       <c r="B467">
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>40585</v>
       </c>
       <c r="B477">
-        <v>-53</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>40592</v>
       </c>
       <c r="B478">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>40599</v>
       </c>
       <c r="B479">
-        <v>-68</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>40606</v>
       </c>
       <c r="B480">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>40613</v>
       </c>
       <c r="B481">
-        <v>-65</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>40620</v>
       </c>
       <c r="B482">
-        <v>-84</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>40627</v>
       </c>
       <c r="B483">
-        <v>-65</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>40634</v>
       </c>
       <c r="B484">
-        <v>-63</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>40641</v>
       </c>
       <c r="B485">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>40648</v>
       </c>
       <c r="B486">
-        <v>-46</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>40655</v>
       </c>
       <c r="B487">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>40662</v>
       </c>
       <c r="B488">
-        <v>-48</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>40746</v>
       </c>
       <c r="B500">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>40795</v>
       </c>
       <c r="B507">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>40851</v>
       </c>
       <c r="B515">
-        <v>-37</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>40858</v>
       </c>
       <c r="B516">
-        <v>-75</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>40865</v>
       </c>
       <c r="B517">
-        <v>-88</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>-99</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>-87</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>-92</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>-99</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>40907</v>
       </c>
       <c r="B523">
-        <v>-47</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>40921</v>
       </c>
       <c r="B525">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>41131</v>
       </c>
       <c r="B555">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>41152</v>
       </c>
       <c r="B558">
-        <v>-33</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>41180</v>
       </c>
       <c r="B562">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>41187</v>
       </c>
       <c r="B563">
-        <v>-15</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>41194</v>
       </c>
       <c r="B564">
-        <v>-19</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>41523</v>
       </c>
       <c r="B611">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>41530</v>
       </c>
       <c r="B612">
-        <v>-41</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>41537</v>
       </c>
       <c r="B613">
-        <v>-31</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>41544</v>
       </c>
       <c r="B614">
-        <v>-30</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>41551</v>
       </c>
       <c r="B615">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>41607</v>
       </c>
       <c r="B623">
-        <v>-39</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>41635</v>
       </c>
       <c r="B627">
-        <v>-14</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>41775</v>
       </c>
       <c r="B647">
-        <v>-40</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>41782</v>
       </c>
       <c r="B648">
-        <v>-31</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>41999</v>
       </c>
       <c r="B679">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42006</v>
       </c>
       <c r="B680">
-        <v>-21</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42041</v>
       </c>
       <c r="B685">
-        <v>-33</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42048</v>
       </c>
       <c r="B686">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42055</v>
       </c>
       <c r="B687">
-        <v>-36</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42062</v>
       </c>
       <c r="B688">
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42069</v>
       </c>
       <c r="B689">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42076</v>
       </c>
       <c r="B690">
-        <v>-15</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42083</v>
       </c>
       <c r="B691">
-        <v>-14</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42090</v>
       </c>
       <c r="B692">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42097</v>
       </c>
       <c r="B693">
-        <v>-25</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42104</v>
       </c>
       <c r="B694">
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42111</v>
       </c>
       <c r="B695">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>42286</v>
       </c>
       <c r="B720">
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42342</v>
       </c>
       <c r="B728">
-        <v>-44</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42349</v>
       </c>
       <c r="B729">
-        <v>-56</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42356</v>
       </c>
       <c r="B730">
-        <v>-44</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42468</v>
       </c>
       <c r="B746">
-        <v>-36</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>-31</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43098</v>
       </c>
       <c r="B836">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>43196</v>
       </c>
       <c r="B850">
-        <v>-40</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>43259</v>
       </c>
       <c r="B859">
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>43315</v>
       </c>
       <c r="B867">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>43343</v>
       </c>
       <c r="B871">
-        <v>-49</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-56</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>43511</v>
       </c>
       <c r="B895">
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>43763</v>
       </c>
       <c r="B931">
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>43966</v>
       </c>
       <c r="B960">
-        <v>-54</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>43973</v>
       </c>
       <c r="B961">
-        <v>-39</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43980</v>
       </c>
       <c r="B962">
-        <v>-31</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>44547</v>
       </c>
       <c r="B1043">
-        <v>-57</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>44554</v>
       </c>
       <c r="B1044">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>44561</v>
       </c>
       <c r="B1045">
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>-42</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>-70</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>-77</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>-87</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>-87</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>44638</v>
       </c>
       <c r="B1056">
-        <v>-42</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>44645</v>
       </c>
       <c r="B1057">
-        <v>-39</v>
+        <v>-38</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>44932</v>
       </c>
       <c r="B1098">
-        <v>-68</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>44946</v>
       </c>
       <c r="B1100">
-        <v>-43</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>45065</v>
       </c>
       <c r="B1117">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9351,7 +9351,175 @@
         <v>45093</v>
       </c>
       <c r="B1121">
-        <v>-11</v>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2">
+      <c r="A1122" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1122">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2">
+      <c r="A1123" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1123">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2">
+      <c r="A1124" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1124">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2">
+      <c r="A1125" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1125">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2">
+      <c r="A1126" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1126">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2">
+      <c r="A1127" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1127">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2">
+      <c r="A1128" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1128">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2">
+      <c r="A1129" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B1129">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2">
+      <c r="A1130" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B1130">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2">
+      <c r="A1131" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B1131">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2">
+      <c r="A1132" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B1132">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2">
+      <c r="A1133" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B1133">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2">
+      <c r="A1134" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B1134">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2">
+      <c r="A1135" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B1135">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2">
+      <c r="A1136" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B1136">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2">
+      <c r="A1137" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B1137">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2">
+      <c r="A1138" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B1138">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2">
+      <c r="A1139" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B1139">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2">
+      <c r="A1140" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B1140">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2">
+      <c r="A1141" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B1141">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2">
+      <c r="A1142" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B1142">
+        <v>-41</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -9519,7 +9519,7 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>-41</v>
+        <v>-46</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1142"/>
+  <dimension ref="A1:B1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9519,7 +9519,39 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>-46</v>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2">
+      <c r="A1143" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B1143">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2">
+      <c r="A1144" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B1144">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2">
+      <c r="A1145" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B1145">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2">
+      <c r="A1146" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B1146">
+        <v>-22</v>
       </c>
     </row>
   </sheetData>

--- a/每週買賣報表/ETF空單部位變化.xlsx
+++ b/每週買賣報表/ETF空單部位變化.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7119,7 +7119,7 @@
         <v>43140</v>
       </c>
       <c r="B842">
-        <v>-66</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>43455</v>
       </c>
       <c r="B887">
-        <v>-82</v>
+        <v>-81</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>-74</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>43469</v>
       </c>
       <c r="B889">
-        <v>-78</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>-55</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -9551,7 +9551,15 @@
         <v>45268</v>
       </c>
       <c r="B1146">
-        <v>-22</v>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1147">
+        <v>-34</v>
       </c>
     </row>
   </sheetData>
